--- a/INACAPestadisticaSede/estadisticasporsede.xlsx
+++ b/INACAPestadisticaSede/estadisticasporsede.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\INACAPestadisticaSede\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{0917FEA5-CFD0-4BFD-AB59-5CA11687C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{062A7748-24B8-4046-AF9E-1859DF4E43CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33168E89-11C0-4980-965C-6D6FDACEA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5090777E-CD02-4CB7-B59C-4DAADD21E997}"/>
   </bookViews>
@@ -527,9 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6FA7E4-26E5-4AA8-A9FE-D285507833DC}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
